--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H2">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J2">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.4623844475697</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="N2">
-        <v>2.4623844475697</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="O2">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="P2">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="Q2">
-        <v>13.4600534293773</v>
+        <v>15.10408794570911</v>
       </c>
       <c r="R2">
-        <v>13.4600534293773</v>
+        <v>135.936791511382</v>
       </c>
       <c r="S2">
-        <v>0.0116058097928715</v>
+        <v>0.01259930187414668</v>
       </c>
       <c r="T2">
-        <v>0.0116058097928715</v>
+        <v>0.01259930187414668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H3">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I3">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J3">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.1339482521458</v>
+        <v>27.41886</v>
       </c>
       <c r="N3">
-        <v>27.1339482521458</v>
+        <v>82.25658</v>
       </c>
       <c r="O3">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="P3">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="Q3">
-        <v>148.3214343659078</v>
+        <v>154.97599394886</v>
       </c>
       <c r="R3">
-        <v>148.3214343659078</v>
+        <v>1394.78394553974</v>
       </c>
       <c r="S3">
-        <v>0.1278888203890463</v>
+        <v>0.129275553613439</v>
       </c>
       <c r="T3">
-        <v>0.1278888203890463</v>
+        <v>0.129275553613439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.46626804870457</v>
+        <v>5.652167666666667</v>
       </c>
       <c r="H4">
-        <v>5.46626804870457</v>
+        <v>16.956503</v>
       </c>
       <c r="I4">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="J4">
-        <v>0.181666329901699</v>
+        <v>0.1860329065948871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.94749607057587</v>
+        <v>9.365757</v>
       </c>
       <c r="N4">
-        <v>8.94749607057587</v>
+        <v>28.097271</v>
       </c>
       <c r="O4">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="P4">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="Q4">
-        <v>48.90941188649856</v>
+        <v>52.93682888925701</v>
       </c>
       <c r="R4">
-        <v>48.90941188649856</v>
+        <v>476.431460003313</v>
       </c>
       <c r="S4">
-        <v>0.0421716997197812</v>
+        <v>0.04415805110730138</v>
       </c>
       <c r="T4">
-        <v>0.0421716997197812</v>
+        <v>0.04415805110730138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H5">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I5">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J5">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.4623844475697</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="N5">
-        <v>2.4623844475697</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="O5">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="P5">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="Q5">
-        <v>40.28403536748866</v>
+        <v>43.84461867048868</v>
       </c>
       <c r="R5">
-        <v>40.28403536748866</v>
+        <v>394.601568034398</v>
       </c>
       <c r="S5">
-        <v>0.0347345465318863</v>
+        <v>0.03657364735771866</v>
       </c>
       <c r="T5">
-        <v>0.0347345465318863</v>
+        <v>0.03657364735771866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H6">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I6">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J6">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.1339482521458</v>
+        <v>27.41886</v>
       </c>
       <c r="N6">
-        <v>27.1339482521458</v>
+        <v>82.25658</v>
       </c>
       <c r="O6">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="P6">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="Q6">
-        <v>443.9050661353351</v>
+        <v>449.86916007054</v>
       </c>
       <c r="R6">
-        <v>443.9050661353351</v>
+        <v>4048.82244063486</v>
       </c>
       <c r="S6">
-        <v>0.3827531436401648</v>
+        <v>0.37526511842165</v>
       </c>
       <c r="T6">
-        <v>0.3827531436401648</v>
+        <v>0.37526511842165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3597668135241</v>
+        <v>16.407289</v>
       </c>
       <c r="H7">
-        <v>16.3597668135241</v>
+        <v>49.221867</v>
       </c>
       <c r="I7">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="J7">
-        <v>0.5437016202973917</v>
+        <v>0.5400221369958743</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.94749607057587</v>
+        <v>9.365757</v>
       </c>
       <c r="N7">
-        <v>8.94749607057587</v>
+        <v>28.097271</v>
       </c>
       <c r="O7">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="P7">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="Q7">
-        <v>146.3789492795444</v>
+        <v>153.666681802773</v>
       </c>
       <c r="R7">
-        <v>146.3789492795444</v>
+        <v>1383.000136224957</v>
       </c>
       <c r="S7">
-        <v>0.1262139301253405</v>
+        <v>0.1281833712165056</v>
       </c>
       <c r="T7">
-        <v>0.1262139301253405</v>
+        <v>0.1281833712165056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H8">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I8">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J8">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.4623844475697</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="N8">
-        <v>2.4623844475697</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="O8">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="P8">
-        <v>0.06388530994792208</v>
+        <v>0.06772620019093417</v>
       </c>
       <c r="Q8">
-        <v>20.34808577758953</v>
+        <v>22.24170330735623</v>
       </c>
       <c r="R8">
-        <v>20.34808577758953</v>
+        <v>200.175329766206</v>
       </c>
       <c r="S8">
-        <v>0.01754495362316427</v>
+        <v>0.01855325095906883</v>
       </c>
       <c r="T8">
-        <v>0.01754495362316427</v>
+        <v>0.01855325095906884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H9">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I9">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J9">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.1339482521458</v>
+        <v>27.41886</v>
       </c>
       <c r="N9">
-        <v>27.1339482521458</v>
+        <v>82.25658</v>
       </c>
       <c r="O9">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="P9">
-        <v>0.7039764631026998</v>
+        <v>0.6949069171668364</v>
       </c>
       <c r="Q9">
-        <v>224.2232755588869</v>
+        <v>228.21173245038</v>
       </c>
       <c r="R9">
-        <v>224.2232755588869</v>
+        <v>2053.90559205342</v>
       </c>
       <c r="S9">
-        <v>0.1933344990734887</v>
+        <v>0.1903662451317474</v>
       </c>
       <c r="T9">
-        <v>0.1933344990734887</v>
+        <v>0.1903662451317475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.263569808391409</v>
+        <v>8.323166333333333</v>
       </c>
       <c r="H10">
-        <v>8.263569808391409</v>
+        <v>24.969499</v>
       </c>
       <c r="I10">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="J10">
-        <v>0.2746320498009094</v>
+        <v>0.2739449564092387</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.94749607057587</v>
+        <v>9.365757</v>
       </c>
       <c r="N10">
-        <v>8.94749607057587</v>
+        <v>28.097271</v>
       </c>
       <c r="O10">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="P10">
-        <v>0.2321382269493782</v>
+        <v>0.2373668826422294</v>
       </c>
       <c r="Q10">
-        <v>73.93825838951153</v>
+        <v>77.952753348581</v>
       </c>
       <c r="R10">
-        <v>73.93825838951153</v>
+        <v>701.5747801372289</v>
       </c>
       <c r="S10">
-        <v>0.06375259710425643</v>
+        <v>0.06502546031842241</v>
       </c>
       <c r="T10">
-        <v>0.06375259710425643</v>
+        <v>0.06502546031842242</v>
       </c>
     </row>
   </sheetData>
